--- a/parasol/examples/box.xlsx
+++ b/parasol/examples/box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_proj_github\ParaSol\parasol\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85114BD-3817-4A85-95BC-6A6495D18717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CAB25F-791B-44A1-BE1D-442CC321EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="1215" windowWidth="26955" windowHeight="13905" xr2:uid="{8F51D269-5504-4C3A-80DE-0A2B45B3C717}"/>
+    <workbookView xWindow="28845" yWindow="1215" windowWidth="26955" windowHeight="13905" xr2:uid="{5A63325E-5EFE-4F8D-9F76-2301DAE5797F}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimization" sheetId="15" r:id="rId1"/>
@@ -475,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F515-4140-A20B-15DA6B7CAB79}"/>
+              <c16:uniqueId val="{00000000-C467-4ADB-8D76-967A3E51ECC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -487,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1334692943"/>
-        <c:axId val="1334700847"/>
+        <c:axId val="1338848047"/>
+        <c:axId val="1344809119"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1334692943"/>
+        <c:axId val="1338848047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -531,12 +531,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1334700847"/>
+        <c:crossAx val="1344809119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1334700847"/>
+        <c:axId val="1344809119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1334692943"/>
+        <c:crossAx val="1338848047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -801,7 +801,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E685-4018-9C41-E6EFE4BC0B7D}"/>
+              <c16:uniqueId val="{00000000-4B67-4B81-A588-ECB391388596}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,7 +966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E685-4018-9C41-E6EFE4BC0B7D}"/>
+              <c16:uniqueId val="{00000001-4B67-4B81-A588-ECB391388596}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1131,7 +1131,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E685-4018-9C41-E6EFE4BC0B7D}"/>
+              <c16:uniqueId val="{00000002-4B67-4B81-A588-ECB391388596}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1143,11 +1143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1072784463"/>
-        <c:axId val="1072777807"/>
+        <c:axId val="1538988223"/>
+        <c:axId val="1538989055"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1072784463"/>
+        <c:axId val="1538988223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1187,12 +1187,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1072777807"/>
+        <c:crossAx val="1538989055"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1072777807"/>
+        <c:axId val="1538989055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1072784463"/>
+        <c:crossAx val="1538988223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1475,7 +1475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000000-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1678,7 +1678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000018-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1875,7 +1875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000019-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2078,7 +2078,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001A-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2281,7 +2281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001B-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2478,7 +2478,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001C-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2687,7 +2687,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001D-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2884,7 +2884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001E-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3081,7 +3081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{0000001F-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3248,7 +3248,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000020-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3391,7 +3391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000021-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3480,7 +3480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-C874-4F8C-89A7-2A995D7CEF0F}"/>
+              <c16:uniqueId val="{00000022-837A-48A5-B260-DC78F97801A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3492,11 +3492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1340395743"/>
-        <c:axId val="1340396991"/>
+        <c:axId val="1338848047"/>
+        <c:axId val="1531127871"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1340395743"/>
+        <c:axId val="1338848047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -3536,12 +3536,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1340396991"/>
+        <c:crossAx val="1531127871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1340396991"/>
+        <c:axId val="1531127871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3581,7 +3581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1340395743"/>
+        <c:crossAx val="1338848047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3874,7 +3874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{00000000-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4089,7 +4089,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{00000016-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4286,7 +4286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{00000017-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4501,7 +4501,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{00000018-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4710,7 +4710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{00000019-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4931,7 +4931,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001A-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5152,7 +5152,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001B-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5373,7 +5373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001C-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5564,7 +5564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001D-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5737,7 +5737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001E-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5874,7 +5874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-E466-4E5D-B469-D92936A1E011}"/>
+              <c16:uniqueId val="{0000001F-1499-40EC-A87B-8C6E4A08A0D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5886,11 +5886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1067535039"/>
-        <c:axId val="1067538783"/>
+        <c:axId val="1338848047"/>
+        <c:axId val="1338849711"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1067535039"/>
+        <c:axId val="1338848047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5930,12 +5930,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1067538783"/>
+        <c:crossAx val="1338849711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1067538783"/>
+        <c:axId val="1338849711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5975,7 +5975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1067535039"/>
+        <c:crossAx val="1338848047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6231,7 +6231,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000000-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6417,7 +6417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000010-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6603,7 +6603,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000011-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6789,7 +6789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000012-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6975,7 +6975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000013-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7161,7 +7161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000014-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7347,7 +7347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000015-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7533,7 +7533,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-C1D4-444D-BE07-09EF71F924AC}"/>
+              <c16:uniqueId val="{00000016-7DF8-47CB-BC30-0ACD3003C669}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7545,11 +7545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1072784047"/>
-        <c:axId val="1072785711"/>
+        <c:axId val="1072788207"/>
+        <c:axId val="1072762831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1072784047"/>
+        <c:axId val="1072788207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60200000000000009"/>
@@ -7589,12 +7589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1072785711"/>
+        <c:crossAx val="1072762831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1072785711"/>
+        <c:axId val="1072762831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="268.58879999999999"/>
@@ -7634,7 +7634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1072784047"/>
+        <c:crossAx val="1072788207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7854,7 +7854,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F286-468F-93F1-EBE6DFB1059B}"/>
+              <c16:uniqueId val="{00000000-957C-45B4-97D0-730A0FDA2B5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8005,7 +8005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F286-468F-93F1-EBE6DFB1059B}"/>
+              <c16:uniqueId val="{00000006-957C-45B4-97D0-730A0FDA2B5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8162,7 +8162,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F286-468F-93F1-EBE6DFB1059B}"/>
+              <c16:uniqueId val="{00000007-957C-45B4-97D0-730A0FDA2B5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8174,11 +8174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1075887567"/>
-        <c:axId val="1075887983"/>
+        <c:axId val="1340401567"/>
+        <c:axId val="1340395327"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1075887567"/>
+        <c:axId val="1340401567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8216,12 +8216,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1075887983"/>
+        <c:crossAx val="1340395327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1075887983"/>
+        <c:axId val="1340395327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8259,7 +8259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1075887567"/>
+        <c:crossAx val="1340401567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8479,7 +8479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D39F-47F5-9C6A-ED8091F8D37E}"/>
+              <c16:uniqueId val="{00000000-982D-4681-8439-41AF089CCEE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8630,7 +8630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D39F-47F5-9C6A-ED8091F8D37E}"/>
+              <c16:uniqueId val="{00000006-982D-4681-8439-41AF089CCEE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8787,7 +8787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D39F-47F5-9C6A-ED8091F8D37E}"/>
+              <c16:uniqueId val="{00000007-982D-4681-8439-41AF089CCEE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8799,11 +8799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1067552095"/>
-        <c:axId val="1067552511"/>
+        <c:axId val="1334692527"/>
+        <c:axId val="1334707087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1067552095"/>
+        <c:axId val="1334692527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8841,12 +8841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1067552511"/>
+        <c:crossAx val="1334707087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1067552511"/>
+        <c:axId val="1334707087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8884,7 +8884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1067552095"/>
+        <c:crossAx val="1334692527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8912,7 +8912,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1B80074E-84C4-4235-9434-B5ED32F815F7}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{74146055-17DC-4B55-9493-FDDA5725ACFB}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8923,7 +8923,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A9A14C88-CF8F-4FB4-915D-D8FFD01DABF4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2DFA731C-445C-4D3E-8808-379C797AF2E1}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8934,7 +8934,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1B46597C-D6DD-458A-BAC3-63C122B81849}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AAFE56BF-FD9C-4869-9308-4C0FE835ED6A}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8945,7 +8945,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B992CB92-227C-4380-BE91-0521792DFC04}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FB2F1819-DA0F-4575-98F1-A2651D02F2AF}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8956,7 +8956,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CBEFF139-25C2-4506-9B10-153E11BEA480}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DC2CE0F9-2AE1-4271-8CC4-936B0268E5DF}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8967,7 +8967,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AB6F51D0-310F-4DCB-9205-E98C41C7D5C3}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{458F3768-9940-4B83-A014-56235D20A6BF}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8978,7 +8978,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{88DBE759-4CF9-4ECB-AF00-888D8B71A6E8}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{15601CBC-03C1-4E78-9621-54E3E7FC37E6}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
@@ -8998,7 +8998,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4107D02-824C-E536-66B5-0766C2A9E9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B3FAF2-DDC0-DE7B-44E8-037A300396EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9037,7 +9037,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB492A1D-282A-F917-0E0E-CD81D1429AF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA28531-9A95-5B16-60D0-D48588F57F78}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9090,7 +9090,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DD0AC7-CCEB-8B76-A887-84C2A8E59299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C612FD88-6DFD-B4D4-8582-BD2AC80C9A6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9129,7 +9129,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FB4E21-773D-A385-51D0-C9FF7F2C22A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F462BA-D7EA-E221-5304-4E82BB8B3980}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9184,7 +9184,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631FDADE-422A-EBFF-7C83-8D2A2766D6CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0C8E7E-FAC6-DC15-F6C9-F6DAB18E717D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9223,7 +9223,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B03BBC-F386-A726-2D8C-47331DBFAA49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B74469-6AA1-89C7-883C-F7E48551523C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9284,7 +9284,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1FE35D-5580-178F-7D4B-31A6426564D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E1BC51-A9A5-132E-4476-81F95A67513A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9338,7 +9338,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662A1DED-A60B-C029-C969-35B21E32A938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA007215-1B4B-9F5B-EA14-5DC4235C581E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9377,7 +9377,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCDE526-6455-BA0C-07CD-591A2934BD78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D19FDA4-821C-1800-CFB6-715F8EA7AAFA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9430,7 +9430,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE2B2C5-C1C0-4BF5-D45E-472E25F2C68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9022B920-B56C-D4E4-0E9E-24EFA7101EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9469,7 +9469,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A23C208-6F1F-353A-BEF4-F015FA2EB627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8131C9-4FBA-2C78-E7DB-44E8A9F38060}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9522,7 +9522,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB2AB6A-6266-00C2-BF06-0A122008CA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4561184F-94C8-6273-2796-9373BA7333EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9561,7 +9561,7 @@
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8DE39E-7820-6B73-7302-493B20AE684A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7F1396-5338-9CEB-9F75-8CA2B86D316F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9614,7 +9614,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89F06FC-E06E-F8BC-F80B-FECC2E2975A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA7A3775-4847-41A5-F34A-A58C6F89755F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9933,7 +9933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7A4D2A-4EC0-4211-880E-626ECF688F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A4D28-F50B-4F29-B76A-E6F7803D4217}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10119,7 +10119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB63E614-872F-4CA7-8D26-E5E84C84A94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7DB51A-284C-416C-9C86-7196D918B167}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10300,7 +10300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2106254-1ABD-4BA5-A443-DE4AF7965186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F47F48-BD3C-425B-9EF0-1C527F128A4B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10621,7 +10621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26766D6D-5314-4E67-840A-4DC8C16984A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B565DC9-B802-4F75-A44E-059A2F7598DE}">
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12530,7 +12530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530F8670-465E-41FF-A91B-606D86F36B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7337E3B2-C099-45CA-B213-20E57090D24B}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14517,7 +14517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6E7B5A-A78D-4447-987D-1AA2B24AB624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7E91-D3E9-4D6A-BD57-5EA1B9C5B70F}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15680,7 +15680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA3DD7-7301-4556-9996-EDB52B5E5B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F1E060-F642-4AC9-B685-0931EE7F3A81}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16121,7 +16121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3EC0ED-42B1-45D4-A858-007249E6E784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835A0A17-930E-4FF3-9DEA-E192D147680F}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
